--- a/work/プロト技研株式会社2021-07-31.xlsx
+++ b/work/プロト技研株式会社2021-07-31.xlsx
@@ -3,10 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-07-31請求書" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="請求書元" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="請求書211001" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -68,7 +69,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="71">
+  <borders count="72">
     <border>
       <left/>
       <right/>
@@ -849,6 +850,19 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -918,7 +932,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="128">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -958,6 +972,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="60" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="61" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1026,6 +1049,26 @@
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="57" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="38" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="58" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="59" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="54" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="37" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="55" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="31" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1046,53 +1089,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="33" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="24" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="53" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="62" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="27" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="60" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="61" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="57" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="38" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="58" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="59" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="54" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="37" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="54" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="55" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="55" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1112,6 +1115,17 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="28" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="62" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="27" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="42" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1121,18 +1135,60 @@
     <xf applyAlignment="1" borderId="28" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="60" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="61" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="62" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="27" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="36" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="35" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="65" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="27" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="54" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="27" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="29" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="37" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf borderId="60" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="61" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="36" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1140,7 +1196,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="35" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1156,6 +1212,12 @@
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="36" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="35" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1524,62 +1586,62 @@
   </sheetPr>
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="B21" sqref="B21:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="18" width="8.77734375"/>
-    <col customWidth="1" max="3" min="3" style="18" width="8.88671875"/>
-    <col customWidth="1" max="4" min="4" style="18" width="8.77734375"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="18" width="10.6640625"/>
+    <col customWidth="1" max="2" min="2" style="21" width="8.77734375"/>
+    <col customWidth="1" max="3" min="3" style="21" width="8.88671875"/>
+    <col customWidth="1" max="4" min="4" style="21" width="8.77734375"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="21" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="G1" s="51" t="inlineStr">
+      <c r="G1" s="66" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="H1" s="49" t="inlineStr">
+      <c r="H1" s="64" t="inlineStr">
         <is>
           <t>2021-07-31</t>
         </is>
       </c>
-      <c r="I1" s="50" t="n"/>
+      <c r="I1" s="65" t="n"/>
     </row>
     <row r="2">
-      <c r="G2" s="51" t="inlineStr">
+      <c r="G2" s="66" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="H2" s="51" t="inlineStr">
+      <c r="H2" s="66" t="inlineStr">
         <is>
           <t>210701</t>
         </is>
       </c>
-      <c r="I2" s="50" t="n"/>
+      <c r="I2" s="65" t="n"/>
     </row>
     <row r="3">
-      <c r="D3" s="52" t="inlineStr">
+      <c r="D3" s="67" t="inlineStr">
         <is>
           <t>御　請　求　書</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="4" s="18" thickBot="1" thickTop="1">
-      <c r="D4" s="53" t="n"/>
-      <c r="E4" s="53" t="n"/>
-      <c r="F4" s="53" t="n"/>
-      <c r="G4" s="53" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="5" s="18" thickTop="1">
+    <row customHeight="1" ht="14.4" r="4" s="21" thickBot="1" thickTop="1">
+      <c r="D4" s="68" t="n"/>
+      <c r="E4" s="68" t="n"/>
+      <c r="F4" s="68" t="n"/>
+      <c r="G4" s="68" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="5" s="21" thickTop="1">
       <c r="D5" s="16" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="6" s="18">
-      <c r="A6" s="54" t="inlineStr">
+    <row customHeight="1" ht="24" r="6" s="21">
+      <c r="A6" s="69" t="inlineStr">
         <is>
           <t>プロト技研株式会社　御中</t>
         </is>
@@ -1627,20 +1689,20 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="16" s="18" thickBot="1"/>
-    <row customHeight="1" ht="25.2" r="17" s="18" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="13.8" r="16" s="21" thickBot="1"/>
+    <row customHeight="1" ht="25.2" r="17" s="21" thickBot="1" thickTop="1">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>受注No.</t>
         </is>
       </c>
-      <c r="B17" s="94" t="inlineStr">
+      <c r="B17" s="106" t="inlineStr">
         <is>
           <t>商品名</t>
         </is>
       </c>
-      <c r="C17" s="56" t="n"/>
-      <c r="D17" s="56" t="n"/>
+      <c r="C17" s="71" t="n"/>
+      <c r="D17" s="71" t="n"/>
       <c r="E17" s="5" t="inlineStr">
         <is>
           <t>数量</t>
@@ -1656,239 +1718,246 @@
           <t>金額</t>
         </is>
       </c>
-      <c r="H17" s="57" t="inlineStr">
+      <c r="H17" s="72" t="inlineStr">
         <is>
           <t>備考</t>
         </is>
       </c>
-      <c r="I17" s="58" t="n"/>
+      <c r="I17" s="73" t="n"/>
       <c r="M17" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="20.4" r="18" s="18" thickTop="1">
-      <c r="A18" s="19" t="n">
+    <row customHeight="1" ht="20.4" r="18" s="21" thickTop="1">
+      <c r="A18" s="22" t="n">
         <v>210403</v>
       </c>
-      <c r="B18" s="95" t="inlineStr">
+      <c r="B18" s="107" t="inlineStr">
         <is>
           <t>バッテリー制御システム</t>
         </is>
       </c>
       <c r="C18" s="16" t="n"/>
-      <c r="D18" s="96" t="n"/>
-      <c r="E18" s="82" t="n"/>
-      <c r="F18" s="82" t="n"/>
-      <c r="G18" s="95" t="n">
+      <c r="D18" s="108" t="n"/>
+      <c r="E18" s="78" t="n"/>
+      <c r="F18" s="78" t="n"/>
+      <c r="G18" s="109" t="n">
         <v>354000</v>
       </c>
-      <c r="H18" s="71" t="inlineStr">
+      <c r="H18" s="52" t="inlineStr">
         <is>
           <t>発注書毎請求</t>
         </is>
       </c>
-      <c r="I18" s="72" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="19" s="18">
-      <c r="A19" s="97" t="n"/>
-      <c r="B19" s="73" t="n"/>
-      <c r="C19" s="98" t="n"/>
-      <c r="D19" s="99" t="n"/>
-      <c r="E19" s="81" t="n"/>
-      <c r="F19" s="81" t="n"/>
-      <c r="G19" s="81" t="n"/>
-      <c r="H19" s="73" t="n"/>
-      <c r="I19" s="74" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="20" s="18">
-      <c r="A20" s="21" t="n">
+      <c r="I18" s="53" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="19" s="21">
+      <c r="A19" s="110" t="n"/>
+      <c r="B19" s="111" t="inlineStr">
+        <is>
+          <t>bmc069、071</t>
+        </is>
+      </c>
+      <c r="C19" s="112" t="n"/>
+      <c r="D19" s="113" t="n"/>
+      <c r="E19" s="62" t="n"/>
+      <c r="F19" s="62" t="n"/>
+      <c r="G19" s="62" t="n"/>
+      <c r="H19" s="54" t="n"/>
+      <c r="I19" s="55" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="20" s="21">
+      <c r="A20" s="24" t="n">
         <v>210402</v>
       </c>
-      <c r="B20" s="100" t="inlineStr">
+      <c r="B20" s="114" t="inlineStr">
         <is>
           <t>バッテリー制御システム</t>
         </is>
       </c>
-      <c r="C20" s="101" t="n"/>
-      <c r="D20" s="102" t="n"/>
-      <c r="E20" s="84" t="n"/>
-      <c r="F20" s="84" t="n"/>
-      <c r="G20" s="103" t="n">
+      <c r="C20" s="115" t="n"/>
+      <c r="D20" s="116" t="n"/>
+      <c r="E20" s="79" t="n"/>
+      <c r="F20" s="79" t="n"/>
+      <c r="G20" s="117" t="n">
         <v>387000</v>
       </c>
-      <c r="H20" s="75" t="inlineStr">
+      <c r="H20" s="56" t="inlineStr">
         <is>
           <t>発注書毎請求</t>
         </is>
       </c>
-      <c r="I20" s="76" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="21" s="18">
-      <c r="A21" s="22" t="n"/>
-      <c r="B21" s="104" t="n"/>
-      <c r="C21" s="59" t="n"/>
-      <c r="D21" s="60" t="n"/>
-      <c r="E21" s="47" t="n"/>
-      <c r="F21" s="47" t="n"/>
-      <c r="G21" s="47" t="n"/>
-      <c r="H21" s="77" t="n"/>
-      <c r="I21" s="78" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="22" s="18">
-      <c r="A22" s="38" t="n"/>
-      <c r="B22" s="35" t="n"/>
-      <c r="C22" s="36" t="n"/>
-      <c r="D22" s="37" t="n"/>
-      <c r="E22" s="48" t="n"/>
-      <c r="F22" s="48" t="n"/>
-      <c r="G22" s="105" t="n"/>
-      <c r="H22" s="79" t="n"/>
-      <c r="I22" s="26" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="23" s="18">
-      <c r="A23" s="39" t="n"/>
-      <c r="B23" s="85" t="n"/>
-      <c r="C23" s="106" t="n"/>
-      <c r="D23" s="107" t="n"/>
-      <c r="E23" s="47" t="n"/>
-      <c r="F23" s="47" t="n"/>
-      <c r="G23" s="47" t="n"/>
-      <c r="H23" s="77" t="n"/>
-      <c r="I23" s="78" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="24" s="18">
-      <c r="A24" s="40" t="n"/>
-      <c r="B24" s="88" t="n"/>
-      <c r="D24" s="108" t="n"/>
-      <c r="E24" s="48" t="n"/>
-      <c r="F24" s="48" t="n"/>
-      <c r="G24" s="105" t="n"/>
-      <c r="H24" s="79" t="n"/>
-      <c r="I24" s="26" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="25" s="18">
-      <c r="A25" s="41" t="n"/>
-      <c r="B25" s="47" t="n"/>
-      <c r="C25" s="59" t="n"/>
-      <c r="D25" s="60" t="n"/>
-      <c r="E25" s="47" t="n"/>
-      <c r="F25" s="47" t="n"/>
-      <c r="G25" s="47" t="n"/>
-      <c r="H25" s="77" t="n"/>
-      <c r="I25" s="78" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="26" s="18">
-      <c r="A26" s="42" t="n"/>
-      <c r="B26" s="61" t="n"/>
-      <c r="C26" s="36" t="n"/>
-      <c r="D26" s="37" t="n"/>
-      <c r="E26" s="64" t="n"/>
-      <c r="F26" s="64" t="n"/>
-      <c r="G26" s="109" t="n"/>
-      <c r="H26" s="25" t="n"/>
-      <c r="I26" s="26" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="27" s="18" thickBot="1">
-      <c r="A27" s="43" t="n"/>
-      <c r="B27" s="45" t="n"/>
-      <c r="C27" s="62" t="n"/>
-      <c r="D27" s="63" t="n"/>
-      <c r="E27" s="45" t="n"/>
-      <c r="F27" s="45" t="n"/>
-      <c r="G27" s="45" t="n"/>
-      <c r="H27" s="27" t="n"/>
-      <c r="I27" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.4" r="28" s="18" thickBot="1" thickTop="1">
+      <c r="I20" s="57" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="21" s="21">
+      <c r="A21" s="25" t="n"/>
+      <c r="B21" s="118" t="inlineStr">
+        <is>
+          <t>bmc064、068</t>
+        </is>
+      </c>
+      <c r="C21" s="86" t="n"/>
+      <c r="D21" s="87" t="n"/>
+      <c r="E21" s="50" t="n"/>
+      <c r="F21" s="50" t="n"/>
+      <c r="G21" s="50" t="n"/>
+      <c r="H21" s="58" t="n"/>
+      <c r="I21" s="59" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="22" s="21">
+      <c r="A22" s="41" t="n"/>
+      <c r="B22" s="38" t="n"/>
+      <c r="C22" s="39" t="n"/>
+      <c r="D22" s="40" t="n"/>
+      <c r="E22" s="51" t="n"/>
+      <c r="F22" s="51" t="n"/>
+      <c r="G22" s="119" t="n"/>
+      <c r="H22" s="60" t="n"/>
+      <c r="I22" s="29" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="23" s="21">
+      <c r="A23" s="42" t="n"/>
+      <c r="B23" s="80" t="n"/>
+      <c r="C23" s="120" t="n"/>
+      <c r="D23" s="121" t="n"/>
+      <c r="E23" s="50" t="n"/>
+      <c r="F23" s="50" t="n"/>
+      <c r="G23" s="50" t="n"/>
+      <c r="H23" s="58" t="n"/>
+      <c r="I23" s="59" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="24" s="21">
+      <c r="A24" s="43" t="n"/>
+      <c r="B24" s="83" t="n"/>
+      <c r="D24" s="122" t="n"/>
+      <c r="E24" s="51" t="n"/>
+      <c r="F24" s="51" t="n"/>
+      <c r="G24" s="119" t="n"/>
+      <c r="H24" s="60" t="n"/>
+      <c r="I24" s="29" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="25" s="21">
+      <c r="A25" s="44" t="n"/>
+      <c r="B25" s="50" t="n"/>
+      <c r="C25" s="86" t="n"/>
+      <c r="D25" s="87" t="n"/>
+      <c r="E25" s="50" t="n"/>
+      <c r="F25" s="50" t="n"/>
+      <c r="G25" s="50" t="n"/>
+      <c r="H25" s="58" t="n"/>
+      <c r="I25" s="59" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="26" s="21">
+      <c r="A26" s="45" t="n"/>
+      <c r="B26" s="74" t="n"/>
+      <c r="C26" s="39" t="n"/>
+      <c r="D26" s="40" t="n"/>
+      <c r="E26" s="77" t="n"/>
+      <c r="F26" s="77" t="n"/>
+      <c r="G26" s="123" t="n"/>
+      <c r="H26" s="28" t="n"/>
+      <c r="I26" s="29" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="27" s="21" thickBot="1">
+      <c r="A27" s="46" t="n"/>
+      <c r="B27" s="48" t="n"/>
+      <c r="C27" s="75" t="n"/>
+      <c r="D27" s="76" t="n"/>
+      <c r="E27" s="48" t="n"/>
+      <c r="F27" s="48" t="n"/>
+      <c r="G27" s="48" t="n"/>
+      <c r="H27" s="30" t="n"/>
+      <c r="I27" s="31" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.4" r="28" s="21" thickBot="1" thickTop="1">
       <c r="A28" s="2" t="n"/>
       <c r="B28" s="2" t="n"/>
       <c r="C28" s="2" t="n"/>
       <c r="D28" s="2" t="n"/>
-      <c r="E28" s="23" t="inlineStr">
+      <c r="E28" s="26" t="inlineStr">
         <is>
           <t>合計請求額</t>
         </is>
       </c>
-      <c r="F28" s="24" t="n"/>
-      <c r="G28" s="110" t="n"/>
+      <c r="F28" s="27" t="n"/>
+      <c r="G28" s="124" t="n"/>
       <c r="H28" s="2" t="n"/>
       <c r="I28" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="26.4" r="29" s="18">
+    <row customHeight="1" ht="26.4" r="29" s="21">
       <c r="E29" s="4" t="n"/>
       <c r="F29" s="4" t="n"/>
-      <c r="G29" s="111" t="n"/>
-    </row>
-    <row customHeight="1" ht="19.8" r="31" s="18">
+      <c r="G29" s="125" t="n"/>
+    </row>
+    <row customHeight="1" ht="19.8" r="31" s="21">
       <c r="A31" s="3" t="inlineStr">
         <is>
           <t>※</t>
         </is>
       </c>
-      <c r="B31" s="17" t="inlineStr">
+      <c r="B31" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve">振込先　：　三友UTS銀行　大阪北支店　</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19.8" r="32" s="18">
-      <c r="C32" s="17" t="inlineStr">
+    <row customHeight="1" ht="19.8" r="32" s="21">
+      <c r="C32" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve">　普通　　１２３４５６７　　ソウゾウシステムサービス　ソウゾウ　タロウ</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="20.4" r="33" s="18">
+    <row customHeight="1" ht="20.4" r="33" s="21">
       <c r="A33" s="3" t="inlineStr">
         <is>
           <t>※</t>
         </is>
       </c>
-      <c r="B33" s="17" t="inlineStr">
+      <c r="B33" s="20" t="inlineStr">
         <is>
           <t>恐れ入りますが、振込手数料は貴社にてご負担下さい。</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="20.4" r="34" s="18"/>
-    <row customHeight="1" ht="20.4" r="35" s="18">
+    <row customHeight="1" ht="20.4" r="34" s="21"/>
+    <row customHeight="1" ht="20.4" r="35" s="21">
       <c r="A35" s="3" t="inlineStr">
         <is>
           <t>※</t>
         </is>
       </c>
-      <c r="B35" s="17" t="n"/>
-      <c r="C35" s="17" t="n"/>
-      <c r="D35" s="17" t="n"/>
-      <c r="E35" s="17" t="n"/>
-      <c r="F35" s="17" t="n"/>
-      <c r="G35" s="17" t="n"/>
-      <c r="H35" s="17" t="n"/>
-      <c r="I35" s="17" t="n"/>
-      <c r="J35" s="17" t="n"/>
-      <c r="K35" s="17" t="n"/>
-      <c r="L35" s="17" t="n"/>
-      <c r="M35" s="17" t="n"/>
-      <c r="N35" s="17" t="n"/>
-      <c r="O35" s="17" t="n"/>
-      <c r="P35" s="17" t="n"/>
-      <c r="Q35" s="17" t="n"/>
-      <c r="R35" s="17" t="n"/>
-      <c r="S35" s="17" t="n"/>
-      <c r="T35" s="17" t="n"/>
-      <c r="U35" s="17" t="n"/>
-      <c r="V35" s="17" t="n"/>
-      <c r="W35" s="17" t="n"/>
-      <c r="X35" s="17" t="n"/>
-      <c r="Y35" s="17" t="n"/>
-      <c r="Z35" s="17" t="n"/>
-      <c r="AA35" s="17" t="n"/>
+      <c r="B35" s="20" t="n"/>
+      <c r="C35" s="20" t="n"/>
+      <c r="D35" s="20" t="n"/>
+      <c r="E35" s="20" t="n"/>
+      <c r="F35" s="20" t="n"/>
+      <c r="G35" s="20" t="n"/>
+      <c r="H35" s="20" t="n"/>
+      <c r="I35" s="20" t="n"/>
+      <c r="J35" s="20" t="n"/>
+      <c r="K35" s="20" t="n"/>
+      <c r="L35" s="20" t="n"/>
+      <c r="M35" s="20" t="n"/>
+      <c r="N35" s="20" t="n"/>
+      <c r="O35" s="20" t="n"/>
+      <c r="P35" s="20" t="n"/>
+      <c r="Q35" s="20" t="n"/>
+      <c r="R35" s="20" t="n"/>
+      <c r="S35" s="20" t="n"/>
+      <c r="T35" s="20" t="n"/>
+      <c r="U35" s="20" t="n"/>
+      <c r="V35" s="20" t="n"/>
+      <c r="W35" s="20" t="n"/>
+      <c r="X35" s="20" t="n"/>
+      <c r="Y35" s="20" t="n"/>
+      <c r="Z35" s="20" t="n"/>
+      <c r="AA35" s="20" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="45">
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B18:D19"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F22:F23"/>
@@ -1898,13 +1967,15 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="D3:G4"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="F24:F25"/>
     <mergeCell ref="H18:I19"/>
     <mergeCell ref="H20:I21"/>
     <mergeCell ref="H22:I23"/>
@@ -1912,6 +1983,7 @@
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="G20:G21"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="B33:AA33"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
@@ -1927,7 +1999,452 @@
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="G24:G25"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="21" width="8.88671875"/>
+    <col customWidth="1" max="2" min="2" style="21" width="8.77734375"/>
+    <col customWidth="1" max="3" min="3" style="21" width="8.88671875"/>
+    <col customWidth="1" max="4" min="4" style="21" width="8.77734375"/>
+    <col customWidth="1" max="6" min="5" style="21" width="8.88671875"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="21" width="10.6640625"/>
+    <col customWidth="1" max="16384" min="8" style="21" width="8.88671875"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="G1" s="66" t="inlineStr">
+        <is>
+          <t>日付</t>
+        </is>
+      </c>
+      <c r="H1" s="64" t="n">
+        <v>44500</v>
+      </c>
+      <c r="I1" s="65" t="n"/>
+    </row>
+    <row r="2">
+      <c r="G2" s="66" t="inlineStr">
+        <is>
+          <t>No.</t>
+        </is>
+      </c>
+      <c r="H2" s="66" t="n">
+        <v>211001</v>
+      </c>
+      <c r="I2" s="65" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="3" s="21" thickBot="1">
+      <c r="D3" s="67" t="inlineStr">
+        <is>
+          <t>御　請　求　書</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="4" s="21" thickBot="1" thickTop="1">
+      <c r="D4" s="68" t="n"/>
+      <c r="E4" s="68" t="n"/>
+      <c r="F4" s="68" t="n"/>
+      <c r="G4" s="68" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="5" s="21" thickTop="1">
+      <c r="D5" s="16" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="6" s="21">
+      <c r="A6" s="69" t="inlineStr">
+        <is>
+          <t>アデックテクノロジー株式会社　御中</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>創造システムサービス</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　  創造　太郎</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　  〒550-0002</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　  大阪市西区江戸堀1-25-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　  TEL:06-1234-5678</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>下記の通りご請求申し上げます。</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="16" s="21" thickBot="1"/>
+    <row customHeight="1" ht="25.2" r="17" s="21" thickBot="1" thickTop="1">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>受注No.</t>
+        </is>
+      </c>
+      <c r="B17" s="106" t="inlineStr">
+        <is>
+          <t>商品名</t>
+        </is>
+      </c>
+      <c r="C17" s="71" t="n"/>
+      <c r="D17" s="71" t="n"/>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="G17" s="5" t="inlineStr">
+        <is>
+          <t>金額</t>
+        </is>
+      </c>
+      <c r="H17" s="72" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="I17" s="73" t="n"/>
+      <c r="M17" s="6" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="18" s="21" thickTop="1">
+      <c r="A18" s="22" t="n">
+        <v>200702</v>
+      </c>
+      <c r="B18" s="109" t="inlineStr">
+        <is>
+          <t>ＴＮ社向け営業支援</t>
+        </is>
+      </c>
+      <c r="C18" s="16" t="n"/>
+      <c r="D18" s="108" t="n"/>
+      <c r="E18" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="78" t="inlineStr">
+        <is>
+          <t>式</t>
+        </is>
+      </c>
+      <c r="G18" s="109" t="n">
+        <v>133000</v>
+      </c>
+      <c r="H18" s="52" t="n"/>
+      <c r="I18" s="53" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="19" s="21">
+      <c r="A19" s="110" t="n"/>
+      <c r="B19" s="54" t="n"/>
+      <c r="C19" s="112" t="n"/>
+      <c r="D19" s="113" t="n"/>
+      <c r="E19" s="62" t="n"/>
+      <c r="F19" s="62" t="n"/>
+      <c r="G19" s="62" t="n"/>
+      <c r="H19" s="54" t="n"/>
+      <c r="I19" s="55" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="20" s="21">
+      <c r="A20" s="24" t="n">
+        <v>200901</v>
+      </c>
+      <c r="B20" s="126" t="inlineStr">
+        <is>
+          <t>ＫＹ社向け営業支援</t>
+        </is>
+      </c>
+      <c r="C20" s="115" t="n"/>
+      <c r="D20" s="116" t="n"/>
+      <c r="E20" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="79" t="inlineStr">
+        <is>
+          <t>式</t>
+        </is>
+      </c>
+      <c r="G20" s="117" t="n">
+        <v>80000</v>
+      </c>
+      <c r="H20" s="56" t="inlineStr">
+        <is>
+          <t>21年10月分</t>
+        </is>
+      </c>
+      <c r="I20" s="57" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="21" s="21">
+      <c r="A21" s="25" t="n"/>
+      <c r="B21" s="127" t="inlineStr">
+        <is>
+          <t>継続活動</t>
+        </is>
+      </c>
+      <c r="C21" s="86" t="n"/>
+      <c r="D21" s="87" t="n"/>
+      <c r="E21" s="50" t="n"/>
+      <c r="F21" s="50" t="n"/>
+      <c r="G21" s="50" t="n"/>
+      <c r="H21" s="58" t="n"/>
+      <c r="I21" s="59" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="22" s="21">
+      <c r="A22" s="41" t="n"/>
+      <c r="B22" s="38" t="n"/>
+      <c r="C22" s="39" t="n"/>
+      <c r="D22" s="40" t="n"/>
+      <c r="E22" s="51" t="n"/>
+      <c r="F22" s="51" t="n"/>
+      <c r="G22" s="119" t="n">
+        <v>21300</v>
+      </c>
+      <c r="H22" s="60" t="n"/>
+      <c r="I22" s="29" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="23" s="21">
+      <c r="A23" s="42" t="n"/>
+      <c r="B23" s="80" t="inlineStr">
+        <is>
+          <t>以上に掛かる消費税</t>
+        </is>
+      </c>
+      <c r="C23" s="120" t="n"/>
+      <c r="D23" s="121" t="n"/>
+      <c r="E23" s="50" t="n"/>
+      <c r="F23" s="50" t="n"/>
+      <c r="G23" s="50" t="n"/>
+      <c r="H23" s="58" t="n"/>
+      <c r="I23" s="59" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="24" s="21">
+      <c r="A24" s="43" t="n"/>
+      <c r="B24" s="91" t="inlineStr">
+        <is>
+          <t>～　以　下　余　白　～</t>
+        </is>
+      </c>
+      <c r="D24" s="122" t="n"/>
+      <c r="E24" s="51" t="n"/>
+      <c r="F24" s="51" t="n"/>
+      <c r="G24" s="119" t="n"/>
+      <c r="H24" s="60" t="n"/>
+      <c r="I24" s="29" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="25" s="21">
+      <c r="A25" s="44" t="n"/>
+      <c r="B25" s="50" t="n"/>
+      <c r="C25" s="86" t="n"/>
+      <c r="D25" s="87" t="n"/>
+      <c r="E25" s="50" t="n"/>
+      <c r="F25" s="50" t="n"/>
+      <c r="G25" s="50" t="n"/>
+      <c r="H25" s="58" t="n"/>
+      <c r="I25" s="59" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="26" s="21" thickBot="1">
+      <c r="A26" s="45" t="n"/>
+      <c r="B26" s="74" t="n"/>
+      <c r="C26" s="39" t="n"/>
+      <c r="D26" s="40" t="n"/>
+      <c r="E26" s="77" t="n"/>
+      <c r="F26" s="77" t="n"/>
+      <c r="G26" s="123" t="n"/>
+      <c r="H26" s="28" t="n"/>
+      <c r="I26" s="29" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="27" s="21" thickBot="1" thickTop="1">
+      <c r="A27" s="46" t="n"/>
+      <c r="B27" s="48" t="n"/>
+      <c r="C27" s="75" t="n"/>
+      <c r="D27" s="76" t="n"/>
+      <c r="E27" s="48" t="n"/>
+      <c r="F27" s="48" t="n"/>
+      <c r="G27" s="48" t="n"/>
+      <c r="H27" s="30" t="n"/>
+      <c r="I27" s="31" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.4" r="28" s="21" thickBot="1" thickTop="1">
+      <c r="A28" s="2" t="n"/>
+      <c r="B28" s="2" t="n"/>
+      <c r="C28" s="2" t="n"/>
+      <c r="D28" s="2" t="n"/>
+      <c r="E28" s="26" t="inlineStr">
+        <is>
+          <t>合計請求額</t>
+        </is>
+      </c>
+      <c r="F28" s="27" t="n"/>
+      <c r="G28" s="124">
+        <f>SUM(G18:G27)</f>
+        <v/>
+      </c>
+      <c r="H28" s="2" t="n"/>
+      <c r="I28" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.4" r="29" s="21">
+      <c r="E29" s="4" t="n"/>
+      <c r="F29" s="4" t="n"/>
+      <c r="G29" s="125" t="n"/>
+    </row>
+    <row customHeight="1" ht="19.8" r="31" s="21">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>※</t>
+        </is>
+      </c>
+      <c r="B31" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">振込先　：　三友UTS銀行　大阪北支店　</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.8" r="32" s="21">
+      <c r="C32" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　普通　　１２３４５６７　　ソウゾウシステムサービス　ソウゾウ　タロウ</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.4" r="33" s="21">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>※</t>
+        </is>
+      </c>
+      <c r="B33" s="20" t="inlineStr">
+        <is>
+          <t>恐れ入りますが、振込手数料は貴社にてご負担下さい。</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.4" r="34" s="21"/>
+    <row customHeight="1" ht="20.4" r="35" s="21">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>※</t>
+        </is>
+      </c>
+      <c r="B35" s="20" t="inlineStr">
+        <is>
+          <t>お振込み期限　　：　　2021年11月30日</t>
+        </is>
+      </c>
+      <c r="C35" s="20" t="n"/>
+      <c r="D35" s="20" t="n"/>
+      <c r="E35" s="20" t="n"/>
+      <c r="F35" s="20" t="n"/>
+      <c r="G35" s="20" t="n"/>
+      <c r="H35" s="20" t="n"/>
+      <c r="I35" s="20" t="n"/>
+      <c r="J35" s="20" t="n"/>
+      <c r="K35" s="20" t="n"/>
+      <c r="L35" s="20" t="n"/>
+      <c r="M35" s="20" t="n"/>
+      <c r="N35" s="20" t="n"/>
+      <c r="O35" s="20" t="n"/>
+      <c r="P35" s="20" t="n"/>
+      <c r="Q35" s="20" t="n"/>
+      <c r="R35" s="20" t="n"/>
+      <c r="S35" s="20" t="n"/>
+      <c r="T35" s="20" t="n"/>
+      <c r="U35" s="20" t="n"/>
+      <c r="V35" s="20" t="n"/>
+      <c r="W35" s="20" t="n"/>
+      <c r="X35" s="20" t="n"/>
+      <c r="Y35" s="20" t="n"/>
+      <c r="Z35" s="20" t="n"/>
+      <c r="AA35" s="20" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B31:AA31"/>
+    <mergeCell ref="C32:Y32"/>
+    <mergeCell ref="B33:AA33"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:I23"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D3:G4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H17:I17"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" verticalDpi="0"/>

--- a/work/プロト技研株式会社2021-07-31.xlsx
+++ b/work/プロト技研株式会社2021-07-31.xlsx
@@ -6,8 +6,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="請求書元" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="請求書211001" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2021-07-31請求書" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -16,9 +15,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)" numFmtId="164"/>
     <numFmt formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0" numFmtId="165"/>
+    <numFmt formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@" numFmtId="166"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -834,7 +834,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -843,13 +843,75 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -863,68 +925,6 @@
       <top style="double">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -932,7 +932,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -972,124 +972,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="60" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="61" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="48" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="29" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="49" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="30" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="43" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="56" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="23" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="26" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="36" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="35" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="47" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf borderId="33" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="21" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="50" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="31" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="51" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="52" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="53" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="34" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="35" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="57" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="38" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="58" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="59" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="54" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="37" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="55" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="31" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="44" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="45" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="46" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="33" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="24" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="53" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1098,6 +984,11 @@
     <xf applyAlignment="1" borderId="54" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="37" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="35" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="55" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1118,13 +1009,122 @@
     <xf borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="62" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="27" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="31" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="44" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="45" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="46" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="57" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="38" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="58" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="59" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="54" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="55" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="60" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="61" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="48" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="29" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="49" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="30" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="43" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="56" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="23" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="26" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="36" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="35" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="50" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="51" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="52" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="32" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="53" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="42" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1135,46 +1135,53 @@
     <xf applyAlignment="1" borderId="28" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="35" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="62" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="27" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="12" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="60" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="61" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="62" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="27" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="36" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf applyAlignment="1" borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf applyAlignment="1" borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="35" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="44" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="65" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="71" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="27" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1212,12 +1219,6 @@
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="36" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="35" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1586,67 +1587,69 @@
   </sheetPr>
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B21" sqref="B21:D21"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="21" width="8.77734375"/>
-    <col customWidth="1" max="3" min="3" style="21" width="8.88671875"/>
-    <col customWidth="1" max="4" min="4" style="21" width="8.77734375"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="21" width="10.6640625"/>
+    <col customWidth="1" max="2" min="2" style="44" width="8.77734375"/>
+    <col customWidth="1" max="3" min="3" style="44" width="8.88671875"/>
+    <col customWidth="1" max="4" min="4" style="44" width="8.77734375"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="44" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="G1" s="66" t="inlineStr">
+      <c r="G1" s="42" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="H1" s="64" t="inlineStr">
-        <is>
-          <t>2021-07-31</t>
-        </is>
-      </c>
-      <c r="I1" s="65" t="n"/>
+      <c r="H1" s="108" t="inlineStr">
+        <is>
+          <t>2021/07/31</t>
+        </is>
+      </c>
+      <c r="I1" s="41" t="n"/>
     </row>
     <row r="2">
-      <c r="G2" s="66" t="inlineStr">
+      <c r="G2" s="42" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="H2" s="66" t="inlineStr">
+      <c r="H2" s="42" t="inlineStr">
         <is>
           <t>210701</t>
         </is>
       </c>
-      <c r="I2" s="65" t="n"/>
+      <c r="I2" s="41" t="n"/>
     </row>
     <row r="3">
-      <c r="D3" s="67" t="inlineStr">
+      <c r="D3" s="43" t="inlineStr">
         <is>
           <t>御　請　求　書</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="4" s="21" thickBot="1" thickTop="1">
-      <c r="D4" s="68" t="n"/>
-      <c r="E4" s="68" t="n"/>
-      <c r="F4" s="68" t="n"/>
-      <c r="G4" s="68" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="5" s="21" thickTop="1">
+    <row customHeight="1" ht="14.4" r="4" s="44" thickBot="1" thickTop="1">
+      <c r="D4" s="45" t="n"/>
+      <c r="E4" s="45" t="n"/>
+      <c r="F4" s="45" t="n"/>
+      <c r="G4" s="45" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="5" s="44" thickTop="1">
       <c r="D5" s="16" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="6" s="21">
-      <c r="A6" s="69" t="inlineStr">
+    <row customHeight="1" ht="24" r="6" s="44">
+      <c r="A6" s="46" t="inlineStr">
         <is>
           <t>プロト技研株式会社　御中</t>
         </is>
       </c>
     </row>
+    <row r="7"/>
+    <row r="8"/>
     <row r="9">
       <c r="G9" t="inlineStr">
         <is>
@@ -1682,6 +1685,7 @@
         </is>
       </c>
     </row>
+    <row r="14"/>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
@@ -1689,20 +1693,20 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="16" s="21" thickBot="1"/>
-    <row customHeight="1" ht="25.2" r="17" s="21" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="13.8" r="16" s="44" thickBot="1"/>
+    <row customHeight="1" ht="25.2" r="17" s="44" thickBot="1" thickTop="1">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>受注No.</t>
         </is>
       </c>
-      <c r="B17" s="106" t="inlineStr">
+      <c r="B17" s="109" t="inlineStr">
         <is>
           <t>商品名</t>
         </is>
       </c>
-      <c r="C17" s="71" t="n"/>
-      <c r="D17" s="71" t="n"/>
+      <c r="C17" s="48" t="n"/>
+      <c r="D17" s="48" t="n"/>
       <c r="E17" s="5" t="inlineStr">
         <is>
           <t>数量</t>
@@ -1718,271 +1722,247 @@
           <t>金額</t>
         </is>
       </c>
-      <c r="H17" s="72" t="inlineStr">
+      <c r="H17" s="49" t="inlineStr">
         <is>
           <t>備考</t>
         </is>
       </c>
-      <c r="I17" s="73" t="n"/>
+      <c r="I17" s="50" t="n"/>
       <c r="M17" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="20.4" r="18" s="21" thickTop="1">
-      <c r="A18" s="22" t="n">
+    <row customHeight="1" ht="20.4" r="18" s="44" thickTop="1">
+      <c r="A18" s="68" t="n">
+        <v>210402</v>
+      </c>
+      <c r="B18" s="110" t="inlineStr">
+        <is>
+          <t>バッテリー制御システム</t>
+        </is>
+      </c>
+      <c r="C18" s="16" t="n"/>
+      <c r="D18" s="111" t="n"/>
+      <c r="E18" s="24" t="n"/>
+      <c r="F18" s="24" t="n"/>
+      <c r="G18" s="112" t="n">
+        <v>387000</v>
+      </c>
+      <c r="H18" s="51" t="inlineStr">
+        <is>
+          <t>発注書毎請求</t>
+        </is>
+      </c>
+      <c r="I18" s="52" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="19" s="44">
+      <c r="A19" s="113" t="n"/>
+      <c r="B19" s="114" t="inlineStr">
+        <is>
+          <t>bmc064、068</t>
+        </is>
+      </c>
+      <c r="C19" s="115" t="n"/>
+      <c r="D19" s="116" t="n"/>
+      <c r="E19" s="25" t="n"/>
+      <c r="F19" s="25" t="n"/>
+      <c r="G19" s="25" t="n"/>
+      <c r="H19" s="53" t="n"/>
+      <c r="I19" s="54" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="20" s="44">
+      <c r="A20" s="70" t="n">
         <v>210403</v>
       </c>
-      <c r="B18" s="107" t="inlineStr">
-        <is>
-          <t>バッテリー制御システム</t>
-        </is>
-      </c>
-      <c r="C18" s="16" t="n"/>
-      <c r="D18" s="108" t="n"/>
-      <c r="E18" s="78" t="n"/>
-      <c r="F18" s="78" t="n"/>
-      <c r="G18" s="109" t="n">
+      <c r="B20" s="117" t="n"/>
+      <c r="C20" s="118" t="n"/>
+      <c r="D20" s="119" t="n"/>
+      <c r="E20" s="28" t="n"/>
+      <c r="F20" s="28" t="n"/>
+      <c r="G20" s="120" t="n">
         <v>354000</v>
       </c>
-      <c r="H18" s="52" t="inlineStr">
+      <c r="H20" s="55" t="inlineStr">
         <is>
           <t>発注書毎請求</t>
         </is>
       </c>
-      <c r="I18" s="53" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="19" s="21">
-      <c r="A19" s="110" t="n"/>
-      <c r="B19" s="111" t="inlineStr">
-        <is>
-          <t>bmc069、071</t>
-        </is>
-      </c>
-      <c r="C19" s="112" t="n"/>
-      <c r="D19" s="113" t="n"/>
-      <c r="E19" s="62" t="n"/>
-      <c r="F19" s="62" t="n"/>
-      <c r="G19" s="62" t="n"/>
-      <c r="H19" s="54" t="n"/>
-      <c r="I19" s="55" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="20" s="21">
-      <c r="A20" s="24" t="n">
-        <v>210402</v>
-      </c>
-      <c r="B20" s="114" t="inlineStr">
-        <is>
-          <t>バッテリー制御システム</t>
-        </is>
-      </c>
-      <c r="C20" s="115" t="n"/>
-      <c r="D20" s="116" t="n"/>
-      <c r="E20" s="79" t="n"/>
-      <c r="F20" s="79" t="n"/>
-      <c r="G20" s="117" t="n">
-        <v>387000</v>
-      </c>
-      <c r="H20" s="56" t="inlineStr">
-        <is>
-          <t>発注書毎請求</t>
-        </is>
-      </c>
-      <c r="I20" s="57" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="21" s="21">
-      <c r="A21" s="25" t="n"/>
-      <c r="B21" s="118" t="inlineStr">
-        <is>
-          <t>bmc064、068</t>
-        </is>
-      </c>
-      <c r="C21" s="86" t="n"/>
-      <c r="D21" s="87" t="n"/>
-      <c r="E21" s="50" t="n"/>
-      <c r="F21" s="50" t="n"/>
-      <c r="G21" s="50" t="n"/>
-      <c r="H21" s="58" t="n"/>
-      <c r="I21" s="59" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="22" s="21">
-      <c r="A22" s="41" t="n"/>
-      <c r="B22" s="38" t="n"/>
-      <c r="C22" s="39" t="n"/>
-      <c r="D22" s="40" t="n"/>
-      <c r="E22" s="51" t="n"/>
-      <c r="F22" s="51" t="n"/>
-      <c r="G22" s="119" t="n"/>
-      <c r="H22" s="60" t="n"/>
-      <c r="I22" s="29" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="23" s="21">
-      <c r="A23" s="42" t="n"/>
-      <c r="B23" s="80" t="n"/>
-      <c r="C23" s="120" t="n"/>
-      <c r="D23" s="121" t="n"/>
-      <c r="E23" s="50" t="n"/>
-      <c r="F23" s="50" t="n"/>
-      <c r="G23" s="50" t="n"/>
-      <c r="H23" s="58" t="n"/>
-      <c r="I23" s="59" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="24" s="21">
-      <c r="A24" s="43" t="n"/>
-      <c r="B24" s="83" t="n"/>
-      <c r="D24" s="122" t="n"/>
-      <c r="E24" s="51" t="n"/>
-      <c r="F24" s="51" t="n"/>
-      <c r="G24" s="119" t="n"/>
-      <c r="H24" s="60" t="n"/>
-      <c r="I24" s="29" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="25" s="21">
-      <c r="A25" s="44" t="n"/>
-      <c r="B25" s="50" t="n"/>
-      <c r="C25" s="86" t="n"/>
-      <c r="D25" s="87" t="n"/>
-      <c r="E25" s="50" t="n"/>
-      <c r="F25" s="50" t="n"/>
-      <c r="G25" s="50" t="n"/>
-      <c r="H25" s="58" t="n"/>
-      <c r="I25" s="59" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="26" s="21">
-      <c r="A26" s="45" t="n"/>
-      <c r="B26" s="74" t="n"/>
-      <c r="C26" s="39" t="n"/>
-      <c r="D26" s="40" t="n"/>
-      <c r="E26" s="77" t="n"/>
-      <c r="F26" s="77" t="n"/>
-      <c r="G26" s="123" t="n"/>
-      <c r="H26" s="28" t="n"/>
-      <c r="I26" s="29" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="27" s="21" thickBot="1">
-      <c r="A27" s="46" t="n"/>
-      <c r="B27" s="48" t="n"/>
-      <c r="C27" s="75" t="n"/>
-      <c r="D27" s="76" t="n"/>
-      <c r="E27" s="48" t="n"/>
-      <c r="F27" s="48" t="n"/>
-      <c r="G27" s="48" t="n"/>
-      <c r="H27" s="30" t="n"/>
-      <c r="I27" s="31" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.4" r="28" s="21" thickBot="1" thickTop="1">
+      <c r="I20" s="56" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="21" s="44">
+      <c r="A21" s="71" t="n"/>
+      <c r="B21" s="121" t="n"/>
+      <c r="C21" s="35" t="n"/>
+      <c r="D21" s="36" t="n"/>
+      <c r="E21" s="27" t="n"/>
+      <c r="F21" s="27" t="n"/>
+      <c r="G21" s="27" t="n"/>
+      <c r="H21" s="57" t="n"/>
+      <c r="I21" s="58" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="22" s="44">
+      <c r="A22" s="84" t="n"/>
+      <c r="B22" s="83" t="n"/>
+      <c r="C22" s="18" t="n"/>
+      <c r="D22" s="19" t="n"/>
+      <c r="E22" s="26" t="n"/>
+      <c r="F22" s="26" t="n"/>
+      <c r="G22" s="122" t="n">
+        <v>59280</v>
+      </c>
+      <c r="H22" s="59" t="n"/>
+      <c r="I22" s="60" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="23" s="44">
+      <c r="A23" s="85" t="n"/>
+      <c r="B23" s="29" t="inlineStr">
+        <is>
+          <t>以上に掛かる消費税</t>
+        </is>
+      </c>
+      <c r="C23" s="123" t="n"/>
+      <c r="D23" s="124" t="n"/>
+      <c r="E23" s="27" t="n"/>
+      <c r="F23" s="27" t="n"/>
+      <c r="G23" s="27" t="n"/>
+      <c r="H23" s="57" t="n"/>
+      <c r="I23" s="58" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="24" s="44">
+      <c r="A24" s="86" t="n"/>
+      <c r="B24" s="32" t="inlineStr">
+        <is>
+          <t>～　以　下　余　白　～</t>
+        </is>
+      </c>
+      <c r="D24" s="125" t="n"/>
+      <c r="E24" s="26" t="n"/>
+      <c r="F24" s="26" t="n"/>
+      <c r="G24" s="122" t="n"/>
+      <c r="H24" s="59" t="n"/>
+      <c r="I24" s="60" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="25" s="44">
+      <c r="A25" s="87" t="n"/>
+      <c r="B25" s="27" t="n"/>
+      <c r="C25" s="35" t="n"/>
+      <c r="D25" s="36" t="n"/>
+      <c r="E25" s="27" t="n"/>
+      <c r="F25" s="27" t="n"/>
+      <c r="G25" s="27" t="n"/>
+      <c r="H25" s="57" t="n"/>
+      <c r="I25" s="58" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="26" s="44">
+      <c r="A26" s="88" t="n"/>
+      <c r="B26" s="17" t="n"/>
+      <c r="C26" s="18" t="n"/>
+      <c r="D26" s="19" t="n"/>
+      <c r="E26" s="23" t="n"/>
+      <c r="F26" s="23" t="n"/>
+      <c r="G26" s="126" t="n"/>
+      <c r="H26" s="74" t="n"/>
+      <c r="I26" s="60" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="27" s="44" thickBot="1">
+      <c r="A27" s="89" t="n"/>
+      <c r="B27" s="20" t="n"/>
+      <c r="C27" s="21" t="n"/>
+      <c r="D27" s="22" t="n"/>
+      <c r="E27" s="20" t="n"/>
+      <c r="F27" s="20" t="n"/>
+      <c r="G27" s="20" t="n"/>
+      <c r="H27" s="75" t="n"/>
+      <c r="I27" s="76" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.4" r="28" s="44" thickBot="1" thickTop="1">
       <c r="A28" s="2" t="n"/>
       <c r="B28" s="2" t="n"/>
       <c r="C28" s="2" t="n"/>
       <c r="D28" s="2" t="n"/>
-      <c r="E28" s="26" t="inlineStr">
+      <c r="E28" s="72" t="inlineStr">
         <is>
           <t>合計請求額</t>
         </is>
       </c>
-      <c r="F28" s="27" t="n"/>
-      <c r="G28" s="124" t="n"/>
+      <c r="F28" s="73" t="n"/>
+      <c r="G28" s="127" t="n">
+        <v>800280</v>
+      </c>
       <c r="H28" s="2" t="n"/>
       <c r="I28" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="26.4" r="29" s="21">
+    <row customHeight="1" ht="26.4" r="29" s="44">
       <c r="E29" s="4" t="n"/>
       <c r="F29" s="4" t="n"/>
-      <c r="G29" s="125" t="n"/>
-    </row>
-    <row customHeight="1" ht="19.8" r="31" s="21">
+      <c r="G29" s="128" t="n"/>
+    </row>
+    <row r="30"/>
+    <row customHeight="1" ht="19.8" r="31" s="44">
       <c r="A31" s="3" t="inlineStr">
         <is>
           <t>※</t>
         </is>
       </c>
-      <c r="B31" s="20" t="inlineStr">
+      <c r="B31" s="67" t="inlineStr">
         <is>
           <t xml:space="preserve">振込先　：　三友UTS銀行　大阪北支店　</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19.8" r="32" s="21">
-      <c r="C32" s="20" t="inlineStr">
+    <row customHeight="1" ht="19.8" r="32" s="44">
+      <c r="C32" s="67" t="inlineStr">
         <is>
           <t xml:space="preserve">　普通　　１２３４５６７　　ソウゾウシステムサービス　ソウゾウ　タロウ</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="20.4" r="33" s="21">
+    <row customHeight="1" ht="20.4" r="33" s="44">
       <c r="A33" s="3" t="inlineStr">
         <is>
           <t>※</t>
         </is>
       </c>
-      <c r="B33" s="20" t="inlineStr">
+      <c r="B33" s="67" t="inlineStr">
         <is>
           <t>恐れ入りますが、振込手数料は貴社にてご負担下さい。</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="20.4" r="34" s="21"/>
-    <row customHeight="1" ht="20.4" r="35" s="21">
+    <row customHeight="1" ht="20.4" r="34" s="44"/>
+    <row customHeight="1" ht="20.4" r="35" s="44">
       <c r="A35" s="3" t="inlineStr">
         <is>
           <t>※</t>
         </is>
       </c>
-      <c r="B35" s="20" t="n"/>
-      <c r="C35" s="20" t="n"/>
-      <c r="D35" s="20" t="n"/>
-      <c r="E35" s="20" t="n"/>
-      <c r="F35" s="20" t="n"/>
-      <c r="G35" s="20" t="n"/>
-      <c r="H35" s="20" t="n"/>
-      <c r="I35" s="20" t="n"/>
-      <c r="J35" s="20" t="n"/>
-      <c r="K35" s="20" t="n"/>
-      <c r="L35" s="20" t="n"/>
-      <c r="M35" s="20" t="n"/>
-      <c r="N35" s="20" t="n"/>
-      <c r="O35" s="20" t="n"/>
-      <c r="P35" s="20" t="n"/>
-      <c r="Q35" s="20" t="n"/>
-      <c r="R35" s="20" t="n"/>
-      <c r="S35" s="20" t="n"/>
-      <c r="T35" s="20" t="n"/>
-      <c r="U35" s="20" t="n"/>
-      <c r="V35" s="20" t="n"/>
-      <c r="W35" s="20" t="n"/>
-      <c r="X35" s="20" t="n"/>
-      <c r="Y35" s="20" t="n"/>
-      <c r="Z35" s="20" t="n"/>
-      <c r="AA35" s="20" t="n"/>
+      <c r="B35" s="67" t="n"/>
+      <c r="C35" s="67" t="n"/>
+      <c r="D35" s="67" t="n"/>
+      <c r="E35" s="67" t="n"/>
+      <c r="F35" s="67" t="n"/>
+      <c r="G35" s="67" t="n"/>
+      <c r="H35" s="67" t="n"/>
+      <c r="I35" s="67" t="n"/>
+      <c r="J35" s="67" t="n"/>
+      <c r="K35" s="67" t="n"/>
+      <c r="L35" s="67" t="n"/>
+      <c r="M35" s="67" t="n"/>
+      <c r="N35" s="67" t="n"/>
+      <c r="O35" s="67" t="n"/>
+      <c r="P35" s="67" t="n"/>
+      <c r="Q35" s="67" t="n"/>
+      <c r="R35" s="67" t="n"/>
+      <c r="S35" s="67" t="n"/>
+      <c r="T35" s="67" t="n"/>
+      <c r="U35" s="67" t="n"/>
+      <c r="V35" s="67" t="n"/>
+      <c r="W35" s="67" t="n"/>
+      <c r="X35" s="67" t="n"/>
+      <c r="Y35" s="67" t="n"/>
+      <c r="Z35" s="67" t="n"/>
+      <c r="AA35" s="67" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D3:G4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="H22:I23"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G20:G21"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B33:AA33"/>
     <mergeCell ref="A18:A19"/>
@@ -1999,445 +1979,12 @@
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="G24:G25"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AA35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="G38" sqref="G38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="21" width="8.88671875"/>
-    <col customWidth="1" max="2" min="2" style="21" width="8.77734375"/>
-    <col customWidth="1" max="3" min="3" style="21" width="8.88671875"/>
-    <col customWidth="1" max="4" min="4" style="21" width="8.77734375"/>
-    <col customWidth="1" max="6" min="5" style="21" width="8.88671875"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="21" width="10.6640625"/>
-    <col customWidth="1" max="16384" min="8" style="21" width="8.88671875"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="G1" s="66" t="inlineStr">
-        <is>
-          <t>日付</t>
-        </is>
-      </c>
-      <c r="H1" s="64" t="n">
-        <v>44500</v>
-      </c>
-      <c r="I1" s="65" t="n"/>
-    </row>
-    <row r="2">
-      <c r="G2" s="66" t="inlineStr">
-        <is>
-          <t>No.</t>
-        </is>
-      </c>
-      <c r="H2" s="66" t="n">
-        <v>211001</v>
-      </c>
-      <c r="I2" s="65" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="3" s="21" thickBot="1">
-      <c r="D3" s="67" t="inlineStr">
-        <is>
-          <t>御　請　求　書</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.4" r="4" s="21" thickBot="1" thickTop="1">
-      <c r="D4" s="68" t="n"/>
-      <c r="E4" s="68" t="n"/>
-      <c r="F4" s="68" t="n"/>
-      <c r="G4" s="68" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="5" s="21" thickTop="1">
-      <c r="D5" s="16" t="n"/>
-    </row>
-    <row customHeight="1" ht="24" r="6" s="21">
-      <c r="A6" s="69" t="inlineStr">
-        <is>
-          <t>アデックテクノロジー株式会社　御中</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>創造システムサービス</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="G10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">　  創造　太郎</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="G11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">　  〒550-0002</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="G12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">　  大阪市西区江戸堀1-25-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="G13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">　  TEL:06-1234-5678</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>下記の通りご請求申し上げます。</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="16" s="21" thickBot="1"/>
-    <row customHeight="1" ht="25.2" r="17" s="21" thickBot="1" thickTop="1">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>受注No.</t>
-        </is>
-      </c>
-      <c r="B17" s="106" t="inlineStr">
-        <is>
-          <t>商品名</t>
-        </is>
-      </c>
-      <c r="C17" s="71" t="n"/>
-      <c r="D17" s="71" t="n"/>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>数量</t>
-        </is>
-      </c>
-      <c r="F17" s="5" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="G17" s="5" t="inlineStr">
-        <is>
-          <t>金額</t>
-        </is>
-      </c>
-      <c r="H17" s="72" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="I17" s="73" t="n"/>
-      <c r="M17" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="18" s="21" thickTop="1">
-      <c r="A18" s="22" t="n">
-        <v>200702</v>
-      </c>
-      <c r="B18" s="109" t="inlineStr">
-        <is>
-          <t>ＴＮ社向け営業支援</t>
-        </is>
-      </c>
-      <c r="C18" s="16" t="n"/>
-      <c r="D18" s="108" t="n"/>
-      <c r="E18" s="78" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="78" t="inlineStr">
-        <is>
-          <t>式</t>
-        </is>
-      </c>
-      <c r="G18" s="109" t="n">
-        <v>133000</v>
-      </c>
-      <c r="H18" s="52" t="n"/>
-      <c r="I18" s="53" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="19" s="21">
-      <c r="A19" s="110" t="n"/>
-      <c r="B19" s="54" t="n"/>
-      <c r="C19" s="112" t="n"/>
-      <c r="D19" s="113" t="n"/>
-      <c r="E19" s="62" t="n"/>
-      <c r="F19" s="62" t="n"/>
-      <c r="G19" s="62" t="n"/>
-      <c r="H19" s="54" t="n"/>
-      <c r="I19" s="55" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="20" s="21">
-      <c r="A20" s="24" t="n">
-        <v>200901</v>
-      </c>
-      <c r="B20" s="126" t="inlineStr">
-        <is>
-          <t>ＫＹ社向け営業支援</t>
-        </is>
-      </c>
-      <c r="C20" s="115" t="n"/>
-      <c r="D20" s="116" t="n"/>
-      <c r="E20" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="79" t="inlineStr">
-        <is>
-          <t>式</t>
-        </is>
-      </c>
-      <c r="G20" s="117" t="n">
-        <v>80000</v>
-      </c>
-      <c r="H20" s="56" t="inlineStr">
-        <is>
-          <t>21年10月分</t>
-        </is>
-      </c>
-      <c r="I20" s="57" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="21" s="21">
-      <c r="A21" s="25" t="n"/>
-      <c r="B21" s="127" t="inlineStr">
-        <is>
-          <t>継続活動</t>
-        </is>
-      </c>
-      <c r="C21" s="86" t="n"/>
-      <c r="D21" s="87" t="n"/>
-      <c r="E21" s="50" t="n"/>
-      <c r="F21" s="50" t="n"/>
-      <c r="G21" s="50" t="n"/>
-      <c r="H21" s="58" t="n"/>
-      <c r="I21" s="59" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="22" s="21">
-      <c r="A22" s="41" t="n"/>
-      <c r="B22" s="38" t="n"/>
-      <c r="C22" s="39" t="n"/>
-      <c r="D22" s="40" t="n"/>
-      <c r="E22" s="51" t="n"/>
-      <c r="F22" s="51" t="n"/>
-      <c r="G22" s="119" t="n">
-        <v>21300</v>
-      </c>
-      <c r="H22" s="60" t="n"/>
-      <c r="I22" s="29" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="23" s="21">
-      <c r="A23" s="42" t="n"/>
-      <c r="B23" s="80" t="inlineStr">
-        <is>
-          <t>以上に掛かる消費税</t>
-        </is>
-      </c>
-      <c r="C23" s="120" t="n"/>
-      <c r="D23" s="121" t="n"/>
-      <c r="E23" s="50" t="n"/>
-      <c r="F23" s="50" t="n"/>
-      <c r="G23" s="50" t="n"/>
-      <c r="H23" s="58" t="n"/>
-      <c r="I23" s="59" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="24" s="21">
-      <c r="A24" s="43" t="n"/>
-      <c r="B24" s="91" t="inlineStr">
-        <is>
-          <t>～　以　下　余　白　～</t>
-        </is>
-      </c>
-      <c r="D24" s="122" t="n"/>
-      <c r="E24" s="51" t="n"/>
-      <c r="F24" s="51" t="n"/>
-      <c r="G24" s="119" t="n"/>
-      <c r="H24" s="60" t="n"/>
-      <c r="I24" s="29" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="25" s="21">
-      <c r="A25" s="44" t="n"/>
-      <c r="B25" s="50" t="n"/>
-      <c r="C25" s="86" t="n"/>
-      <c r="D25" s="87" t="n"/>
-      <c r="E25" s="50" t="n"/>
-      <c r="F25" s="50" t="n"/>
-      <c r="G25" s="50" t="n"/>
-      <c r="H25" s="58" t="n"/>
-      <c r="I25" s="59" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="26" s="21" thickBot="1">
-      <c r="A26" s="45" t="n"/>
-      <c r="B26" s="74" t="n"/>
-      <c r="C26" s="39" t="n"/>
-      <c r="D26" s="40" t="n"/>
-      <c r="E26" s="77" t="n"/>
-      <c r="F26" s="77" t="n"/>
-      <c r="G26" s="123" t="n"/>
-      <c r="H26" s="28" t="n"/>
-      <c r="I26" s="29" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="27" s="21" thickBot="1" thickTop="1">
-      <c r="A27" s="46" t="n"/>
-      <c r="B27" s="48" t="n"/>
-      <c r="C27" s="75" t="n"/>
-      <c r="D27" s="76" t="n"/>
-      <c r="E27" s="48" t="n"/>
-      <c r="F27" s="48" t="n"/>
-      <c r="G27" s="48" t="n"/>
-      <c r="H27" s="30" t="n"/>
-      <c r="I27" s="31" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.4" r="28" s="21" thickBot="1" thickTop="1">
-      <c r="A28" s="2" t="n"/>
-      <c r="B28" s="2" t="n"/>
-      <c r="C28" s="2" t="n"/>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="26" t="inlineStr">
-        <is>
-          <t>合計請求額</t>
-        </is>
-      </c>
-      <c r="F28" s="27" t="n"/>
-      <c r="G28" s="124">
-        <f>SUM(G18:G27)</f>
-        <v/>
-      </c>
-      <c r="H28" s="2" t="n"/>
-      <c r="I28" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.4" r="29" s="21">
-      <c r="E29" s="4" t="n"/>
-      <c r="F29" s="4" t="n"/>
-      <c r="G29" s="125" t="n"/>
-    </row>
-    <row customHeight="1" ht="19.8" r="31" s="21">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>※</t>
-        </is>
-      </c>
-      <c r="B31" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">振込先　：　三友UTS銀行　大阪北支店　</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="19.8" r="32" s="21">
-      <c r="C32" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">　普通　　１２３４５６７　　ソウゾウシステムサービス　ソウゾウ　タロウ</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="20.4" r="33" s="21">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>※</t>
-        </is>
-      </c>
-      <c r="B33" s="20" t="inlineStr">
-        <is>
-          <t>恐れ入りますが、振込手数料は貴社にてご負担下さい。</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="20.4" r="34" s="21"/>
-    <row customHeight="1" ht="20.4" r="35" s="21">
-      <c r="A35" s="3" t="inlineStr">
-        <is>
-          <t>※</t>
-        </is>
-      </c>
-      <c r="B35" s="20" t="inlineStr">
-        <is>
-          <t>お振込み期限　　：　　2021年11月30日</t>
-        </is>
-      </c>
-      <c r="C35" s="20" t="n"/>
-      <c r="D35" s="20" t="n"/>
-      <c r="E35" s="20" t="n"/>
-      <c r="F35" s="20" t="n"/>
-      <c r="G35" s="20" t="n"/>
-      <c r="H35" s="20" t="n"/>
-      <c r="I35" s="20" t="n"/>
-      <c r="J35" s="20" t="n"/>
-      <c r="K35" s="20" t="n"/>
-      <c r="L35" s="20" t="n"/>
-      <c r="M35" s="20" t="n"/>
-      <c r="N35" s="20" t="n"/>
-      <c r="O35" s="20" t="n"/>
-      <c r="P35" s="20" t="n"/>
-      <c r="Q35" s="20" t="n"/>
-      <c r="R35" s="20" t="n"/>
-      <c r="S35" s="20" t="n"/>
-      <c r="T35" s="20" t="n"/>
-      <c r="U35" s="20" t="n"/>
-      <c r="V35" s="20" t="n"/>
-      <c r="W35" s="20" t="n"/>
-      <c r="X35" s="20" t="n"/>
-      <c r="Y35" s="20" t="n"/>
-      <c r="Z35" s="20" t="n"/>
-      <c r="AA35" s="20" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B31:AA31"/>
-    <mergeCell ref="C32:Y32"/>
-    <mergeCell ref="B33:AA33"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="H22:I23"/>
     <mergeCell ref="H24:I25"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G18:G19"/>
     <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:I23"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
@@ -2445,6 +1992,22 @@
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F24:F25"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" verticalDpi="0"/>

--- a/work/プロト技研株式会社2021-07-31.xlsx
+++ b/work/プロト技研株式会社2021-07-31.xlsx
@@ -9,7 +9,7 @@
     <sheet name="2021-07-31請求書" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -69,7 +69,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="72">
+  <borders count="76">
     <border>
       <left/>
       <right/>
@@ -834,6 +834,99 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
@@ -865,24 +958,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
@@ -890,41 +965,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -932,7 +972,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="138">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -972,10 +1012,95 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="33" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="48" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="29" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="49" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="30" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="43" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="56" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="23" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="26" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="21" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="50" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="51" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="52" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="32" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="53" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="34" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="35" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="57" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="38" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="58" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="59" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="54" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="37" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="55" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="44" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="44" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="45" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="46" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="33" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="24" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="53" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -984,11 +1109,9 @@
     <xf applyAlignment="1" borderId="54" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="37" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="35" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="55" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1001,216 +1124,154 @@
     <xf applyAlignment="1" borderId="41" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="31" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="35" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="62" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="27" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="60" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="61" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="36" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf applyAlignment="1" borderId="42" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="28" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="62" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="27" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="60" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="61" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="21" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="41" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="28" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="24" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="63" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="64" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="65" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="60" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="66" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="67" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="23" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="62" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="27" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="31" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="44" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="45" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="46" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="57" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="38" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="58" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="59" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="54" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="29" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="60" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="61" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="63" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="55" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="55" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="60" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="61" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="48" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="29" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="49" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="30" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="43" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="56" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="23" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="26" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="36" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="35" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="47" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="50" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="31" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="51" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="52" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="53" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="42" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="28" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="35" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="62" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="27" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="60" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="61" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="36" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="44" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="71" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="27" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="54" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="37" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf borderId="60" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="61" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="36" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="55" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="35" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="40" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="41" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="28" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="53" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -1588,61 +1649,61 @@
   <dimension ref="A1:AA35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="H2" sqref="H2:I2"/>
+      <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="44" width="8.77734375"/>
-    <col customWidth="1" max="3" min="3" style="44" width="8.88671875"/>
-    <col customWidth="1" max="4" min="4" style="44" width="8.77734375"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="44" width="10.6640625"/>
+    <col customWidth="1" max="2" min="2" style="18" width="8.77734375"/>
+    <col customWidth="1" max="3" min="3" style="18" width="8.88671875"/>
+    <col customWidth="1" max="4" min="4" style="18" width="8.77734375"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="18" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="G1" s="42" t="inlineStr">
+      <c r="G1" s="56" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="H1" s="108" t="inlineStr">
+      <c r="H1" s="121" t="inlineStr">
         <is>
           <t>2021/07/31</t>
         </is>
       </c>
-      <c r="I1" s="41" t="n"/>
+      <c r="I1" s="57" t="n"/>
     </row>
     <row r="2">
-      <c r="G2" s="42" t="inlineStr">
+      <c r="G2" s="56" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="H2" s="42" t="inlineStr">
+      <c r="H2" s="56" t="inlineStr">
         <is>
           <t>210701</t>
         </is>
       </c>
-      <c r="I2" s="41" t="n"/>
+      <c r="I2" s="57" t="n"/>
     </row>
     <row r="3">
-      <c r="D3" s="43" t="inlineStr">
+      <c r="D3" s="58" t="inlineStr">
         <is>
           <t>御　請　求　書</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="4" s="44" thickBot="1" thickTop="1">
-      <c r="D4" s="45" t="n"/>
-      <c r="E4" s="45" t="n"/>
-      <c r="F4" s="45" t="n"/>
-      <c r="G4" s="45" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="5" s="44" thickTop="1">
+    <row customHeight="1" ht="14.4" r="4" s="18" thickBot="1" thickTop="1">
+      <c r="D4" s="59" t="n"/>
+      <c r="E4" s="59" t="n"/>
+      <c r="F4" s="59" t="n"/>
+      <c r="G4" s="59" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="5" s="18" thickTop="1">
       <c r="D5" s="16" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="6" s="44">
-      <c r="A6" s="46" t="inlineStr">
+    <row customHeight="1" ht="24" r="6" s="18">
+      <c r="A6" s="60" t="inlineStr">
         <is>
           <t>プロト技研株式会社　御中</t>
         </is>
@@ -1693,20 +1754,20 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="16" s="44" thickBot="1"/>
-    <row customHeight="1" ht="25.2" r="17" s="44" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="13.8" r="16" s="18" thickBot="1"/>
+    <row customHeight="1" ht="25.2" r="17" s="18" thickBot="1" thickTop="1">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>受注No.</t>
         </is>
       </c>
-      <c r="B17" s="109" t="inlineStr">
+      <c r="B17" s="122" t="inlineStr">
         <is>
           <t>商品名</t>
         </is>
       </c>
-      <c r="C17" s="48" t="n"/>
-      <c r="D17" s="48" t="n"/>
+      <c r="C17" s="62" t="n"/>
+      <c r="D17" s="62" t="n"/>
       <c r="E17" s="5" t="inlineStr">
         <is>
           <t>数量</t>
@@ -1722,278 +1783,256 @@
           <t>金額</t>
         </is>
       </c>
-      <c r="H17" s="49" t="inlineStr">
+      <c r="H17" s="63" t="inlineStr">
         <is>
           <t>備考</t>
         </is>
       </c>
-      <c r="I17" s="50" t="n"/>
+      <c r="I17" s="64" t="n"/>
       <c r="M17" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="20.4" r="18" s="44" thickTop="1">
-      <c r="A18" s="68" t="n">
+    <row customHeight="1" ht="20.4" r="18" s="18" thickTop="1">
+      <c r="A18" s="19" t="n">
         <v>210402</v>
       </c>
-      <c r="B18" s="110" t="inlineStr">
+      <c r="B18" s="123" t="inlineStr">
         <is>
           <t>バッテリー制御システム</t>
         </is>
       </c>
-      <c r="C18" s="16" t="n"/>
-      <c r="D18" s="111" t="n"/>
-      <c r="E18" s="24" t="n"/>
-      <c r="F18" s="24" t="n"/>
-      <c r="G18" s="112" t="n">
+      <c r="C18" s="124" t="n"/>
+      <c r="D18" s="125" t="n"/>
+      <c r="E18" s="69" t="n"/>
+      <c r="F18" s="69" t="n"/>
+      <c r="G18" s="126" t="n">
         <v>387000</v>
       </c>
-      <c r="H18" s="51" t="inlineStr">
+      <c r="H18" s="42" t="inlineStr">
         <is>
           <t>発注書毎請求</t>
         </is>
       </c>
-      <c r="I18" s="52" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="19" s="44">
-      <c r="A19" s="113" t="n"/>
-      <c r="B19" s="114" t="inlineStr">
+      <c r="I18" s="43" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="19" s="18">
+      <c r="A19" s="127" t="n"/>
+      <c r="B19" s="128" t="inlineStr">
         <is>
           <t>bmc064、068</t>
         </is>
       </c>
-      <c r="C19" s="115" t="n"/>
-      <c r="D19" s="116" t="n"/>
-      <c r="E19" s="25" t="n"/>
-      <c r="F19" s="25" t="n"/>
-      <c r="G19" s="25" t="n"/>
-      <c r="H19" s="53" t="n"/>
-      <c r="I19" s="54" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="20" s="44">
-      <c r="A20" s="70" t="n">
+      <c r="C19" s="129" t="n"/>
+      <c r="D19" s="130" t="n"/>
+      <c r="E19" s="52" t="n"/>
+      <c r="F19" s="52" t="n"/>
+      <c r="G19" s="52" t="n"/>
+      <c r="H19" s="44" t="n"/>
+      <c r="I19" s="45" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="20" s="18">
+      <c r="A20" s="21" t="n">
         <v>210403</v>
       </c>
-      <c r="B20" s="117" t="n"/>
-      <c r="C20" s="118" t="n"/>
-      <c r="D20" s="119" t="n"/>
-      <c r="E20" s="28" t="n"/>
-      <c r="F20" s="28" t="n"/>
-      <c r="G20" s="120" t="n">
+      <c r="B20" s="131" t="inlineStr">
+        <is>
+          <t>バッテリー制御システム</t>
+        </is>
+      </c>
+      <c r="C20" s="99" t="n"/>
+      <c r="D20" s="100" t="n"/>
+      <c r="E20" s="71" t="n"/>
+      <c r="F20" s="71" t="n"/>
+      <c r="G20" s="132" t="n">
         <v>354000</v>
       </c>
-      <c r="H20" s="55" t="inlineStr">
+      <c r="H20" s="46" t="inlineStr">
         <is>
           <t>発注書毎請求</t>
         </is>
       </c>
-      <c r="I20" s="56" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="21" s="44">
-      <c r="A21" s="71" t="n"/>
-      <c r="B21" s="121" t="n"/>
-      <c r="C21" s="35" t="n"/>
-      <c r="D21" s="36" t="n"/>
-      <c r="E21" s="27" t="n"/>
-      <c r="F21" s="27" t="n"/>
-      <c r="G21" s="27" t="n"/>
-      <c r="H21" s="57" t="n"/>
-      <c r="I21" s="58" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="22" s="44">
-      <c r="A22" s="84" t="n"/>
-      <c r="B22" s="83" t="n"/>
-      <c r="C22" s="18" t="n"/>
-      <c r="D22" s="19" t="n"/>
-      <c r="E22" s="26" t="n"/>
-      <c r="F22" s="26" t="n"/>
-      <c r="G22" s="122" t="n">
+      <c r="I20" s="47" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="21" s="18">
+      <c r="A21" s="22" t="n"/>
+      <c r="B21" s="133" t="inlineStr">
+        <is>
+          <t>bmc069、071</t>
+        </is>
+      </c>
+      <c r="C21" s="101" t="n"/>
+      <c r="D21" s="102" t="n"/>
+      <c r="E21" s="41" t="n"/>
+      <c r="F21" s="41" t="n"/>
+      <c r="G21" s="41" t="n"/>
+      <c r="H21" s="118" t="n"/>
+      <c r="I21" s="49" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="22" s="18">
+      <c r="A22" s="32" t="n"/>
+      <c r="B22" s="113" t="n"/>
+      <c r="C22" s="103" t="n"/>
+      <c r="D22" s="104" t="n"/>
+      <c r="E22" s="70" t="n"/>
+      <c r="F22" s="70" t="n"/>
+      <c r="G22" s="134" t="n">
         <v>59280</v>
       </c>
-      <c r="H22" s="59" t="n"/>
-      <c r="I22" s="60" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="23" s="44">
-      <c r="A23" s="85" t="n"/>
-      <c r="B23" s="29" t="inlineStr">
+      <c r="H22" s="50" t="n"/>
+      <c r="I22" s="26" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="23" s="18">
+      <c r="A23" s="33" t="n"/>
+      <c r="B23" s="114" t="inlineStr">
         <is>
           <t>以上に掛かる消費税</t>
         </is>
       </c>
-      <c r="C23" s="123" t="n"/>
-      <c r="D23" s="124" t="n"/>
-      <c r="E23" s="27" t="n"/>
-      <c r="F23" s="27" t="n"/>
-      <c r="G23" s="27" t="n"/>
-      <c r="H23" s="57" t="n"/>
-      <c r="I23" s="58" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="24" s="44">
-      <c r="A24" s="86" t="n"/>
-      <c r="B24" s="32" t="inlineStr">
+      <c r="C23" s="115" t="n"/>
+      <c r="D23" s="105" t="n"/>
+      <c r="E23" s="41" t="n"/>
+      <c r="F23" s="41" t="n"/>
+      <c r="G23" s="41" t="n"/>
+      <c r="H23" s="118" t="n"/>
+      <c r="I23" s="49" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="24" s="18">
+      <c r="A24" s="34" t="n"/>
+      <c r="B24" s="116" t="inlineStr">
         <is>
           <t>～　以　下　余　白　～</t>
         </is>
       </c>
-      <c r="D24" s="125" t="n"/>
-      <c r="E24" s="26" t="n"/>
-      <c r="F24" s="26" t="n"/>
-      <c r="G24" s="122" t="n"/>
-      <c r="H24" s="59" t="n"/>
-      <c r="I24" s="60" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="25" s="44">
-      <c r="A25" s="87" t="n"/>
-      <c r="B25" s="27" t="n"/>
-      <c r="C25" s="35" t="n"/>
-      <c r="D25" s="36" t="n"/>
-      <c r="E25" s="27" t="n"/>
-      <c r="F25" s="27" t="n"/>
-      <c r="G25" s="27" t="n"/>
-      <c r="H25" s="57" t="n"/>
-      <c r="I25" s="58" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="26" s="44">
-      <c r="A26" s="88" t="n"/>
-      <c r="B26" s="17" t="n"/>
-      <c r="C26" s="18" t="n"/>
-      <c r="D26" s="19" t="n"/>
-      <c r="E26" s="23" t="n"/>
-      <c r="F26" s="23" t="n"/>
-      <c r="G26" s="126" t="n"/>
-      <c r="H26" s="74" t="n"/>
-      <c r="I26" s="60" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.4" r="27" s="44" thickBot="1">
-      <c r="A27" s="89" t="n"/>
-      <c r="B27" s="20" t="n"/>
-      <c r="C27" s="21" t="n"/>
-      <c r="D27" s="22" t="n"/>
-      <c r="E27" s="20" t="n"/>
-      <c r="F27" s="20" t="n"/>
-      <c r="G27" s="20" t="n"/>
-      <c r="H27" s="75" t="n"/>
-      <c r="I27" s="76" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.4" r="28" s="44" thickBot="1" thickTop="1">
+      <c r="C24" s="117" t="n"/>
+      <c r="D24" s="106" t="n"/>
+      <c r="E24" s="70" t="n"/>
+      <c r="F24" s="70" t="n"/>
+      <c r="G24" s="134" t="n"/>
+      <c r="H24" s="50" t="n"/>
+      <c r="I24" s="26" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="25" s="18">
+      <c r="A25" s="35" t="n"/>
+      <c r="B25" s="118" t="n"/>
+      <c r="C25" s="107" t="n"/>
+      <c r="D25" s="108" t="n"/>
+      <c r="E25" s="41" t="n"/>
+      <c r="F25" s="41" t="n"/>
+      <c r="G25" s="41" t="n"/>
+      <c r="H25" s="118" t="n"/>
+      <c r="I25" s="49" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="26" s="18" thickBot="1">
+      <c r="A26" s="36" t="n"/>
+      <c r="B26" s="119" t="n"/>
+      <c r="C26" s="103" t="n"/>
+      <c r="D26" s="104" t="n"/>
+      <c r="E26" s="68" t="n"/>
+      <c r="F26" s="68" t="n"/>
+      <c r="G26" s="135" t="n"/>
+      <c r="H26" s="25" t="n"/>
+      <c r="I26" s="26" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.4" r="27" s="18" thickBot="1" thickTop="1">
+      <c r="A27" s="37" t="n"/>
+      <c r="B27" s="120" t="n"/>
+      <c r="C27" s="109" t="n"/>
+      <c r="D27" s="110" t="n"/>
+      <c r="E27" s="39" t="n"/>
+      <c r="F27" s="39" t="n"/>
+      <c r="G27" s="39" t="n"/>
+      <c r="H27" s="120" t="n"/>
+      <c r="I27" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.4" r="28" s="18" thickBot="1" thickTop="1">
       <c r="A28" s="2" t="n"/>
       <c r="B28" s="2" t="n"/>
       <c r="C28" s="2" t="n"/>
       <c r="D28" s="2" t="n"/>
-      <c r="E28" s="72" t="inlineStr">
+      <c r="E28" s="23" t="inlineStr">
         <is>
           <t>合計請求額</t>
         </is>
       </c>
-      <c r="F28" s="73" t="n"/>
-      <c r="G28" s="127" t="n">
+      <c r="F28" s="24" t="n"/>
+      <c r="G28" s="136" t="n">
         <v>800280</v>
       </c>
       <c r="H28" s="2" t="n"/>
       <c r="I28" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="26.4" r="29" s="44">
+    <row customHeight="1" ht="26.4" r="29" s="18">
       <c r="E29" s="4" t="n"/>
       <c r="F29" s="4" t="n"/>
-      <c r="G29" s="128" t="n"/>
+      <c r="G29" s="137" t="n"/>
     </row>
     <row r="30"/>
-    <row customHeight="1" ht="19.8" r="31" s="44">
+    <row customHeight="1" ht="19.8" r="31" s="18">
       <c r="A31" s="3" t="inlineStr">
         <is>
           <t>※</t>
         </is>
       </c>
-      <c r="B31" s="67" t="inlineStr">
+      <c r="B31" s="17" t="inlineStr">
         <is>
           <t xml:space="preserve">振込先　：　三友UTS銀行　大阪北支店　</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19.8" r="32" s="44">
-      <c r="C32" s="67" t="inlineStr">
+    <row customHeight="1" ht="19.8" r="32" s="18">
+      <c r="C32" s="17" t="inlineStr">
         <is>
           <t xml:space="preserve">　普通　　１２３４５６７　　ソウゾウシステムサービス　ソウゾウ　タロウ</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="20.4" r="33" s="44">
+    <row customHeight="1" ht="20.4" r="33" s="18">
       <c r="A33" s="3" t="inlineStr">
         <is>
           <t>※</t>
         </is>
       </c>
-      <c r="B33" s="67" t="inlineStr">
+      <c r="B33" s="17" t="inlineStr">
         <is>
           <t>恐れ入りますが、振込手数料は貴社にてご負担下さい。</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="20.4" r="34" s="44"/>
-    <row customHeight="1" ht="20.4" r="35" s="44">
+    <row customHeight="1" ht="20.4" r="34" s="18"/>
+    <row customHeight="1" ht="20.4" r="35" s="18">
       <c r="A35" s="3" t="inlineStr">
         <is>
           <t>※</t>
         </is>
       </c>
-      <c r="B35" s="67" t="n"/>
-      <c r="C35" s="67" t="n"/>
-      <c r="D35" s="67" t="n"/>
-      <c r="E35" s="67" t="n"/>
-      <c r="F35" s="67" t="n"/>
-      <c r="G35" s="67" t="n"/>
-      <c r="H35" s="67" t="n"/>
-      <c r="I35" s="67" t="n"/>
-      <c r="J35" s="67" t="n"/>
-      <c r="K35" s="67" t="n"/>
-      <c r="L35" s="67" t="n"/>
-      <c r="M35" s="67" t="n"/>
-      <c r="N35" s="67" t="n"/>
-      <c r="O35" s="67" t="n"/>
-      <c r="P35" s="67" t="n"/>
-      <c r="Q35" s="67" t="n"/>
-      <c r="R35" s="67" t="n"/>
-      <c r="S35" s="67" t="n"/>
-      <c r="T35" s="67" t="n"/>
-      <c r="U35" s="67" t="n"/>
-      <c r="V35" s="67" t="n"/>
-      <c r="W35" s="67" t="n"/>
-      <c r="X35" s="67" t="n"/>
-      <c r="Y35" s="67" t="n"/>
-      <c r="Z35" s="67" t="n"/>
-      <c r="AA35" s="67" t="n"/>
+      <c r="B35" s="17" t="n"/>
+      <c r="C35" s="17" t="n"/>
+      <c r="D35" s="17" t="n"/>
+      <c r="E35" s="17" t="n"/>
+      <c r="F35" s="17" t="n"/>
+      <c r="G35" s="17" t="n"/>
+      <c r="H35" s="17" t="n"/>
+      <c r="I35" s="17" t="n"/>
+      <c r="J35" s="17" t="n"/>
+      <c r="K35" s="17" t="n"/>
+      <c r="L35" s="17" t="n"/>
+      <c r="M35" s="17" t="n"/>
+      <c r="N35" s="17" t="n"/>
+      <c r="O35" s="17" t="n"/>
+      <c r="P35" s="17" t="n"/>
+      <c r="Q35" s="17" t="n"/>
+      <c r="R35" s="17" t="n"/>
+      <c r="S35" s="17" t="n"/>
+      <c r="T35" s="17" t="n"/>
+      <c r="U35" s="17" t="n"/>
+      <c r="V35" s="17" t="n"/>
+      <c r="W35" s="17" t="n"/>
+      <c r="X35" s="17" t="n"/>
+      <c r="Y35" s="17" t="n"/>
+      <c r="Z35" s="17" t="n"/>
+      <c r="AA35" s="17" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B33:AA33"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B31:AA31"/>
-    <mergeCell ref="C32:Y32"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="H22:I23"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D3:G4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
+  <mergeCells count="35">
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F18:F19"/>
@@ -2002,12 +2041,33 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="E20:E21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:E25"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B18:D18"/>
     <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D3:G4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="H22:I23"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="B33:AA33"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B31:AA31"/>
+    <mergeCell ref="C32:Y32"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G24:G25"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" verticalDpi="0"/>

--- a/work/プロト技研株式会社2021-07-31.xlsx
+++ b/work/プロト技研株式会社2021-07-31.xlsx
@@ -2004,7 +2004,11 @@
           <t>※</t>
         </is>
       </c>
-      <c r="B35" s="17" t="n"/>
+      <c r="B35" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">振込期限    :    </t>
+        </is>
+      </c>
       <c r="C35" s="17" t="n"/>
       <c r="D35" s="17" t="n"/>
       <c r="E35" s="17" t="n"/>

--- a/work/プロト技研株式会社2021-07-31.xlsx
+++ b/work/プロト技研株式会社2021-07-31.xlsx
@@ -2006,7 +2006,7 @@
       </c>
       <c r="B35" s="17" t="inlineStr">
         <is>
-          <t xml:space="preserve">振込期限    :    </t>
+          <t>振込期限    :      2021/07/31</t>
         </is>
       </c>
       <c r="C35" s="17" t="n"/>
